--- a/biology/Botanique/Stylococcaceae/Stylococcaceae.xlsx
+++ b/biology/Botanique/Stylococcaceae/Stylococcaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Stylococcaceae sont une famille d'algues de l'embranchement des Ochrophyta  de la classe des Chrysophyceae et de l'ordre des Chrysosaccales [1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Stylococcaceae sont une famille d'algues de l'embranchement des Ochrophyta  de la classe des Chrysophyceae et de l'ordre des Chrysosaccales .
 Les espèces du genre type Stylococcus sont des épiphytes vivant dans les eaux douces acides de Suisse et de France.
 </t>
         </is>
@@ -512,7 +524,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vient du genre type Stylococcus, dérivé du grec στυλοσ  / stylos, colonne, et du latin -cocc, « en rapport avec une graine, une baie ou un fruit », littéralement « colonne de graines ».
 </t>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Stylococcus est un unicellulaire protégé dans une lorique hyaline avec une longue tige basale, par laquelle elle est fixée dans le mucilage de diverses macro-algues. Le protoplaste remplit la lorica et possède un ou deux chloroplastes et des vacuoles contractiles. Un rhizopode[note 1] simple ou ramifié se projette à travers la bouche du lorica. Reproduction par division longitudinale ; cellules filles amiboïdes à long filopode terminal.
 </t>
@@ -574,9 +590,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon AlgaeBase                                           (26 janvier 2022)[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon AlgaeBase                                           (26 janvier 2022) :
 Bitrichia Woloszynska
 Chrysoamphipyxis K.H.Nicholls
 Chrysoamphitrema Scherffel
